--- a/files/templates/CLASS 1-4 CSA-2.xlsx
+++ b/files/templates/CLASS 1-4 CSA-2.xlsx
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>CLASS 1 (2017)</t>
-  </si>
-  <si>
-    <t>Scholar  Number</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>CO-SCHOLASTIC AREAS</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
   </si>
 </sst>
 </file>
@@ -206,9 +206,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -228,6 +225,9 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,7 +599,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,54 +619,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
+      <c r="A3" s="9" t="s">
+        <v>11</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -674,35 +674,35 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
